--- a/Docs/Conception technique MVC.xlsx
+++ b/Docs/Conception technique MVC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projet_wetransfer\Projet_wetransfer\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projet_wetransfer\Projet_wetransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Phase 2 (conception technique MVC)</t>
   </si>
@@ -50,66 +50,17 @@
     <t>Méthodes &amp; Vues</t>
   </si>
   <si>
-    <t>Actions Possibles</t>
+    <t>Exemples</t>
   </si>
   <si>
-    <t>session_start();
- Connexion à la base de données $bdd = new PDO(…);</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>if isset ($_GET['action'])</t>
-  </si>
-  <si>
-    <t>Affichage Vue d'Accueil</t>
-  </si>
-  <si>
-    <t>deveandcie.fr</t>
-  </si>
-  <si>
-    <t>HomeController</t>
-  </si>
-  <si>
-    <t>Génère le formulaire</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>$_POST['exp_mail']
-$_POST['dest_mail']
-$_POST['dest_message']
-$_POST['file_name']</t>
-  </si>
-  <si>
-    <t>if ($_GET['form'])</t>
-  </si>
-  <si>
-    <t>Possibilité Retour Page d'Accueil</t>
-  </si>
-  <si>
-    <t>Stocke le fichier 
-Stocke les informations du formulaire dans la base de donnée
-Envoi de l'e-mail au destinataire
-Envoi de le-mail à l'expéditeur
-Génère à la vue n°2</t>
-  </si>
-  <si>
-    <t>Affichage de Message de confirmation
-Possibilité Téléchargement via Lien
-Envoi à la vue n°4</t>
+    <t>Actions Possibles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,28 +83,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -278,69 +217,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,7 +236,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,49 +254,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,56 +580,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -779,259 +642,830 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="3"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:I2"/>
+  <mergeCells count="11">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Docs/Conception technique MVC.xlsx
+++ b/Docs/Conception technique MVC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTILISATEUR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projets\2017-12-04_projetgroupe_wetransfer\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$10</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Phase 2 (conception technique MVC)</t>
   </si>
@@ -53,10 +56,6 @@
     <t>Actions Possibles</t>
   </si>
   <si>
-    <t>session_start();
- Connexion à la base de données $bdd = new PDO(…);</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -73,9 +72,6 @@
   </si>
   <si>
     <t>HomeController</t>
-  </si>
-  <si>
-    <t>Génère le formulaire</t>
   </si>
   <si>
     <t>POST</t>
@@ -104,12 +100,44 @@
 Possibilité Téléchargement via Lien
 Envoi à la vue n°4</t>
   </si>
+  <si>
+    <t>SentController</t>
+  </si>
+  <si>
+    <t>ConfirmController</t>
+  </si>
+  <si>
+    <t>DownloadController</t>
+  </si>
+  <si>
+    <t>/download</t>
+  </si>
+  <si>
+    <t>/confirmup</t>
+  </si>
+  <si>
+    <t>/confirmdl</t>
+  </si>
+  <si>
+    <t>Message de confirmation</t>
+  </si>
+  <si>
+    <t>Affiche le formulaire d'upload</t>
+  </si>
+  <si>
+    <t>Affiche le formulaire de download</t>
+  </si>
+  <si>
+    <t>$_POST['id_transfer']
+$_POST['dest_message']
+$_POST['file_name']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,10 +146,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -129,15 +158,33 @@
       <u/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -166,129 +213,36 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -297,40 +251,103 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -338,71 +355,80 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,316 +745,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="A1:L17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:H2"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>

--- a/Docs/Conception technique MVC.xlsx
+++ b/Docs/Conception technique MVC.xlsx
@@ -370,12 +370,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,24 +385,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -429,6 +405,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,30 +765,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -806,64 +806,64 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -871,25 +871,25 @@
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="4"/>
@@ -898,24 +898,24 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="4"/>
@@ -924,28 +924,28 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="4"/>
@@ -954,24 +954,24 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="4"/>

--- a/Docs/Conception technique MVC.xlsx
+++ b/Docs/Conception technique MVC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projets\2017-12-04_projetgroupe_wetransfer\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dleger/Desktop/AFORMAC03-DLEGER/SITES &amp; EXERCICES/Projets/Groupe/Projet_wetransfer/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29620" yWindow="760" windowWidth="28800" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -71,9 +77,6 @@
     <t>deveandcie.fr</t>
   </si>
   <si>
-    <t>HomeController</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -132,11 +135,14 @@
 $_POST['dest_message']
 $_POST['file_name']</t>
   </si>
+  <si>
+    <t>HomePageController</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +216,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -219,136 +225,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,27 +750,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="31" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="53.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -780,7 +786,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -794,7 +800,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -805,7 +811,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -832,7 +838,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -843,7 +849,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>12</v>
@@ -869,35 +875,35 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="96" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -905,25 +911,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -931,29 +937,29 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -961,25 +967,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -993,7 +999,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1008,7 +1014,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1023,7 +1029,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1032,7 +1038,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
